--- a/ZSS/resources/Purva Vihar/FY2014-15/PurvaVihar-Misc.xlsx
+++ b/ZSS/resources/Purva Vihar/FY2014-15/PurvaVihar-Misc.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="MSEB" sheetId="2" r:id="rId1"/>
-    <sheet name="Bank" sheetId="1" r:id="rId2"/>
+    <sheet name="Ba.nk" sheetId="1" r:id="rId2"/>
     <sheet name="Expenses" sheetId="3" r:id="rId3"/>
     <sheet name="Cash" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -299,12 +299,6 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -317,6 +311,12 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -325,9 +325,6 @@
     <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <alignment horizontal="general" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -341,11 +338,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -570,7 +570,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -732,11 +731,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="241782736"/>
-        <c:axId val="241783128"/>
+        <c:axId val="274766568"/>
+        <c:axId val="218058736"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="241782736"/>
+        <c:axId val="274766568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -779,14 +778,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241783128"/>
+        <c:crossAx val="218058736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="241783128"/>
+        <c:axId val="218058736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +836,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241782736"/>
+        <c:crossAx val="274766568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1481,16 +1480,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Bank" displayName="Bank" ref="C4:I93" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Bank" displayName="Bank" ref="C4:I93" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="C4:I93"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Date" dataDxfId="5"/>
+    <tableColumn id="1" name="Date" dataDxfId="4"/>
     <tableColumn id="2" name="Description"/>
-    <tableColumn id="3" name="Cheque Number" dataDxfId="0"/>
+    <tableColumn id="3" name="Cheque Number" dataDxfId="3"/>
     <tableColumn id="4" name="Mode"/>
-    <tableColumn id="5" name="Withdrawal" dataDxfId="3"/>
-    <tableColumn id="6" name="Deposit" dataDxfId="2"/>
-    <tableColumn id="7" name="Balance" dataDxfId="1"/>
+    <tableColumn id="5" name="Withdrawal" dataDxfId="2"/>
+    <tableColumn id="6" name="Deposit" dataDxfId="1"/>
+    <tableColumn id="7" name="Balance" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1800,12 +1799,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="9"/>
     </row>
     <row r="2" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1818,10 +1817,10 @@
       <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C3" s="10" t="s">
@@ -1842,11 +1841,11 @@
       <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="9"/>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
@@ -2089,8 +2088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48:C61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2114,1674 +2113,1674 @@
     </row>
     <row r="3" spans="3:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="15"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15">
         <v>117579.3</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>41953</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <v>171098</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="15">
         <v>1500</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17">
+      <c r="H6" s="15"/>
+      <c r="I6" s="15">
         <f>I5-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>116079.3</v>
       </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>41963</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>171100</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="15">
         <v>110000</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17">
+      <c r="H7" s="15"/>
+      <c r="I7" s="15">
         <f>I6-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>6079.3000000000029</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <v>41981</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>175691</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="15">
         <v>3730</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17">
+      <c r="H8" s="15"/>
+      <c r="I8" s="15">
         <f>I7-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>2349.3000000000029</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <v>41983</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>175692</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="15">
         <v>1500</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17">
+      <c r="H9" s="15"/>
+      <c r="I9" s="15">
         <f>I8-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>849.30000000000291</v>
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <v>42011</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="14"/>
       <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="15">
         <v>25</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17">
+      <c r="H10" s="15"/>
+      <c r="I10" s="15">
         <f>I9-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>824.30000000000291</v>
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <v>42017</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="14"/>
       <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17">
+      <c r="G11" s="15"/>
+      <c r="H11" s="15">
         <v>9000</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="15">
         <f>I10-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>9824.3000000000029</v>
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="15">
+      <c r="C12" s="13">
         <v>42017</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>175694</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="15">
         <v>1500</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15">
         <f>I11-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>8324.3000000000029</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="15">
+      <c r="C13" s="13">
         <v>42031</v>
       </c>
       <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="14"/>
       <c r="F13" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17">
+      <c r="G13" s="15"/>
+      <c r="H13" s="15">
         <v>5500</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="15">
         <f>I12-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>13824.300000000003</v>
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="15">
+      <c r="C14" s="13">
         <v>42040</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="14">
         <v>175695</v>
       </c>
       <c r="F14" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="15">
         <v>4150</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17">
+      <c r="H14" s="15"/>
+      <c r="I14" s="15">
         <f>I13-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>9674.3000000000029</v>
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="15">
+      <c r="C15" s="13">
         <v>42045</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="14">
         <v>175696</v>
       </c>
       <c r="F15" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="15">
         <v>1500</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17">
+      <c r="H15" s="15"/>
+      <c r="I15" s="15">
         <f>I14-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>8174.3000000000029</v>
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="15">
+      <c r="C16" s="13">
         <v>42061</v>
       </c>
       <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="14"/>
       <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17">
+      <c r="G16" s="15"/>
+      <c r="H16" s="15">
         <v>6000</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="15">
         <f>I15-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>14174.300000000003</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="15">
+      <c r="C17" s="13">
         <v>42062</v>
       </c>
       <c r="D17" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="14"/>
       <c r="F17" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17">
+      <c r="G17" s="15"/>
+      <c r="H17" s="15">
         <v>1000</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="15">
         <f>I16-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>15174.300000000003</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <v>42063</v>
       </c>
       <c r="D18" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="16"/>
+      <c r="E18" s="14"/>
       <c r="F18" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="15">
         <v>20</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17">
+      <c r="H18" s="15"/>
+      <c r="I18" s="15">
         <f>I17-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>15154.300000000003</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="15">
+      <c r="C19" s="13">
         <v>42067</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="14">
         <v>175697</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="15">
         <v>7850</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17">
+      <c r="H19" s="15"/>
+      <c r="I19" s="15">
         <f>I18-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>7304.3000000000029</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="15">
+      <c r="C20" s="13">
         <v>42073</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="14">
         <v>175698</v>
       </c>
       <c r="F20" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="15">
         <v>1500</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17">
+      <c r="H20" s="15"/>
+      <c r="I20" s="15">
         <f>I19-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>5804.3000000000029</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="15">
+      <c r="C21" s="13">
         <v>42094</v>
       </c>
       <c r="D21" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="16"/>
+      <c r="E21" s="14"/>
       <c r="F21" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17">
+      <c r="G21" s="15"/>
+      <c r="H21" s="15">
         <v>597</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="15">
         <f>I20-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>6401.3000000000029</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="15">
+      <c r="C22" s="13">
         <v>42094</v>
       </c>
       <c r="D22" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="16"/>
+      <c r="E22" s="14"/>
       <c r="F22" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="15">
         <v>597</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17">
+      <c r="H22" s="15"/>
+      <c r="I22" s="15">
         <f>I21-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>5804.3000000000029</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="15">
+      <c r="C23" s="13">
         <v>42101</v>
       </c>
       <c r="D23" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="16"/>
+      <c r="E23" s="14"/>
       <c r="F23" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17">
+      <c r="G23" s="15"/>
+      <c r="H23" s="15">
         <v>113751</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="15">
         <f>I22-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>119555.3</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="15">
+      <c r="C24" s="13">
         <v>42103</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="16"/>
+      <c r="E24" s="14"/>
       <c r="F24" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17">
+      <c r="G24" s="15"/>
+      <c r="H24" s="15">
         <v>2200</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="15">
         <f>I23-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>121755.3</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="15">
+      <c r="C25" s="13">
         <v>42103</v>
       </c>
       <c r="D25" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="14"/>
       <c r="F25" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17">
+      <c r="G25" s="15"/>
+      <c r="H25" s="15">
         <v>2200</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="15">
         <f>I24-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>123955.3</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="15">
+      <c r="C26" s="13">
         <v>42107</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="14">
         <v>175699</v>
       </c>
       <c r="F26" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="15">
         <v>1500</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="18">
+      <c r="H26" s="15"/>
+      <c r="I26" s="16">
         <f>I25-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>122455.3</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="15">
+      <c r="C27" s="13">
         <v>42135</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="14">
         <v>175700</v>
       </c>
       <c r="F27" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="15">
         <v>1500</v>
       </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17">
+      <c r="H27" s="15"/>
+      <c r="I27" s="15">
         <f>I26-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>120955.3</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="15">
+      <c r="C28" s="13">
         <v>42158</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="14">
         <v>178931</v>
       </c>
       <c r="F28" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="15">
         <v>1500</v>
       </c>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17">
+      <c r="H28" s="15"/>
+      <c r="I28" s="15">
         <f>I27-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>119455.3</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="15">
+      <c r="C29" s="13">
         <v>42208</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="14">
         <v>178932</v>
       </c>
       <c r="F29" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="15">
         <v>1500</v>
       </c>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17">
+      <c r="H29" s="15"/>
+      <c r="I29" s="15">
         <f>I28-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>117955.3</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="15">
+      <c r="C30" s="13">
         <v>42223</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="14">
         <v>178933</v>
       </c>
       <c r="F30" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="15">
         <v>1500</v>
       </c>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17">
+      <c r="H30" s="15"/>
+      <c r="I30" s="15">
         <f>I29-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>116455.3</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="15">
+      <c r="C31" s="13">
         <v>42262</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="14">
         <v>178934</v>
       </c>
       <c r="F31" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="15">
         <v>1500</v>
       </c>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17">
+      <c r="H31" s="15"/>
+      <c r="I31" s="15">
         <f>I30-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>114955.3</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="15">
+      <c r="C32" s="13">
         <v>42262</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="16"/>
+      <c r="E32" s="14"/>
       <c r="F32" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17">
+      <c r="G32" s="15"/>
+      <c r="H32" s="15">
         <v>6000</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="15">
         <f>I31-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>120955.3</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="15">
+      <c r="C33" s="13">
         <v>42277</v>
       </c>
       <c r="D33" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="16"/>
+      <c r="E33" s="14"/>
       <c r="F33" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17">
+      <c r="G33" s="15"/>
+      <c r="H33" s="15">
         <v>2032</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="15">
         <f>I32-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>122987.3</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="15">
+      <c r="C34" s="13">
         <v>42277</v>
       </c>
       <c r="D34" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="16"/>
+      <c r="E34" s="14"/>
       <c r="F34" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="15">
         <v>2032</v>
       </c>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17">
+      <c r="H34" s="15"/>
+      <c r="I34" s="15">
         <f>I33-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>120955.3</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="15">
+      <c r="C35" s="13">
         <v>42289</v>
       </c>
       <c r="D35" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="14">
         <v>178935</v>
       </c>
       <c r="F35" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="15">
         <v>1500</v>
       </c>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17">
+      <c r="H35" s="15"/>
+      <c r="I35" s="15">
         <f>I34-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>119455.3</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="15">
+      <c r="C36" s="13">
         <v>42318</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="14">
         <v>178936</v>
       </c>
       <c r="F36" t="s">
         <v>24</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="15">
         <v>1500</v>
       </c>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17">
+      <c r="H36" s="15"/>
+      <c r="I36" s="15">
         <f>I35-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>117955.3</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="15">
+      <c r="C37" s="13">
         <v>42318</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="14">
         <v>178937</v>
       </c>
       <c r="F37" t="s">
         <v>24</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="15">
         <v>1500</v>
       </c>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17">
+      <c r="H37" s="15"/>
+      <c r="I37" s="15">
         <f>I36-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>116455.3</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="15">
+      <c r="C38" s="13">
         <v>42352</v>
       </c>
       <c r="D38" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="14">
         <v>178938</v>
       </c>
       <c r="F38" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="15">
         <v>1500</v>
       </c>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17">
+      <c r="H38" s="15"/>
+      <c r="I38" s="15">
         <f>I37-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>114955.3</v>
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="15">
+      <c r="C39" s="13">
         <v>42381</v>
       </c>
       <c r="D39" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="14">
         <v>178939</v>
       </c>
       <c r="F39" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="15">
         <v>1500</v>
       </c>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17">
+      <c r="H39" s="15"/>
+      <c r="I39" s="15">
         <f>I38-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>113455.3</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="15">
+      <c r="C40" s="13">
         <v>42389</v>
       </c>
       <c r="D40" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="16"/>
+      <c r="E40" s="14"/>
       <c r="F40" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17">
+      <c r="G40" s="15"/>
+      <c r="H40" s="15">
         <v>9000</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I40" s="15">
         <f>I39-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>122455.3</v>
       </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="15">
+      <c r="C41" s="13">
         <v>42412</v>
       </c>
       <c r="D41" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="14">
         <v>178940</v>
       </c>
       <c r="F41" t="s">
         <v>24</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G41" s="15">
         <v>1500</v>
       </c>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17">
+      <c r="H41" s="15"/>
+      <c r="I41" s="15">
         <f>I40-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>120955.3</v>
       </c>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="15">
+      <c r="C42" s="13">
         <v>42412</v>
       </c>
       <c r="D42" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="16"/>
+      <c r="E42" s="14"/>
       <c r="F42" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G42" s="15">
         <v>20</v>
       </c>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17">
+      <c r="H42" s="15"/>
+      <c r="I42" s="15">
         <f>I41-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>120935.3</v>
       </c>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="15">
+      <c r="C43" s="13">
         <v>42440</v>
       </c>
       <c r="D43" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="14">
         <v>189321</v>
       </c>
       <c r="F43" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G43" s="15">
         <v>1500</v>
       </c>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17">
+      <c r="H43" s="15"/>
+      <c r="I43" s="15">
         <f>I42-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>119435.3</v>
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="15">
+      <c r="C44" s="13">
         <v>42460</v>
       </c>
       <c r="D44" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="16"/>
+      <c r="E44" s="14"/>
       <c r="F44" t="s">
         <v>23</v>
       </c>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17">
+      <c r="G44" s="15"/>
+      <c r="H44" s="15">
         <v>2081</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="15">
         <f>I43-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>121516.3</v>
       </c>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="15">
+      <c r="C45" s="13">
         <v>42460</v>
       </c>
       <c r="D45" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="16"/>
+      <c r="E45" s="14"/>
       <c r="F45" t="s">
         <v>23</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="15">
         <v>2081</v>
       </c>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17">
+      <c r="H45" s="15"/>
+      <c r="I45" s="15">
         <f>I44-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>119435.3</v>
       </c>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="15">
+      <c r="C46" s="13">
         <v>42472</v>
       </c>
       <c r="D46" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="14">
         <v>189322</v>
       </c>
       <c r="F46" t="s">
         <v>24</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="15">
         <v>1500</v>
       </c>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17">
+      <c r="H46" s="15"/>
+      <c r="I46" s="15">
         <f>I45-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>117935.3</v>
       </c>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="15">
+      <c r="C47" s="13">
         <v>42473</v>
       </c>
       <c r="D47" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="16"/>
+      <c r="E47" s="14"/>
       <c r="F47" t="s">
         <v>24</v>
       </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17">
+      <c r="G47" s="15"/>
+      <c r="H47" s="15">
         <v>3300</v>
       </c>
-      <c r="I47" s="18">
+      <c r="I47" s="16">
         <f>I46-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>121235.3</v>
       </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="15">
+      <c r="C48" s="13">
         <v>42500</v>
       </c>
       <c r="D48" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="14">
         <v>189323</v>
       </c>
       <c r="F48" t="s">
         <v>24</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="15">
         <v>1500</v>
       </c>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17">
+      <c r="H48" s="15"/>
+      <c r="I48" s="15">
         <f>I47-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>119735.3</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="15">
+      <c r="C49" s="13">
         <v>42534</v>
       </c>
       <c r="D49" t="s">
         <v>29</v>
       </c>
-      <c r="E49" s="16"/>
+      <c r="E49" s="14"/>
       <c r="F49" t="s">
         <v>23</v>
       </c>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17">
+      <c r="G49" s="15"/>
+      <c r="H49" s="15">
         <v>5000</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I49" s="15">
         <f>I48-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>124735.3</v>
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="15">
+      <c r="C50" s="13">
         <v>42534</v>
       </c>
       <c r="D50" t="s">
         <v>22</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E50" s="14">
         <v>189324</v>
       </c>
       <c r="F50" t="s">
         <v>24</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G50" s="15">
         <v>1500</v>
       </c>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17">
+      <c r="H50" s="15"/>
+      <c r="I50" s="15">
         <f>I49-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>123235.3</v>
       </c>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="15">
+      <c r="C51" s="13">
         <v>42536</v>
       </c>
       <c r="D51" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="16"/>
+      <c r="E51" s="14"/>
       <c r="F51" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17">
+      <c r="G51" s="15"/>
+      <c r="H51" s="15">
         <v>2030</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I51" s="15">
         <f>I50-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>125265.3</v>
       </c>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="15">
+      <c r="C52" s="13">
         <v>42551</v>
       </c>
       <c r="D52" t="s">
         <v>43</v>
       </c>
-      <c r="E52" s="16"/>
+      <c r="E52" s="14"/>
       <c r="F52" t="s">
         <v>23</v>
       </c>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17">
+      <c r="G52" s="15"/>
+      <c r="H52" s="15">
         <v>1208</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I52" s="15">
         <f>I51-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>126473.3</v>
       </c>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="15">
+      <c r="C53" s="13">
         <v>42562</v>
       </c>
       <c r="D53" t="s">
         <v>22</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E53" s="14">
         <v>189327</v>
       </c>
       <c r="F53" t="s">
         <v>24</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G53" s="15">
         <v>1500</v>
       </c>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17">
+      <c r="H53" s="15"/>
+      <c r="I53" s="15">
         <f>I52-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>124973.3</v>
       </c>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="15">
+      <c r="C54" s="13">
         <v>42592</v>
       </c>
       <c r="D54" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54" s="14">
         <v>189328</v>
       </c>
       <c r="F54" t="s">
         <v>24</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G54" s="15">
         <v>1500</v>
       </c>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17">
+      <c r="H54" s="15"/>
+      <c r="I54" s="15">
         <f>I53-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>123473.3</v>
       </c>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="15">
+      <c r="C55" s="13">
         <v>42625</v>
       </c>
       <c r="D55" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E55" s="14">
         <v>189329</v>
       </c>
       <c r="F55" t="s">
         <v>24</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G55" s="15">
         <v>1500</v>
       </c>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17">
+      <c r="H55" s="15"/>
+      <c r="I55" s="15">
         <f>I54-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>121973.3</v>
       </c>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="15">
+      <c r="C56" s="13">
         <v>42630</v>
       </c>
       <c r="D56" t="s">
         <v>45</v>
       </c>
-      <c r="E56" s="16"/>
+      <c r="E56" s="14"/>
       <c r="F56" t="s">
         <v>23</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="15">
         <v>15</v>
       </c>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17">
+      <c r="H56" s="15"/>
+      <c r="I56" s="15">
         <f>I55-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>121958.3</v>
       </c>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="15">
+      <c r="C57" s="13">
         <v>42643</v>
       </c>
       <c r="D57" t="s">
         <v>46</v>
       </c>
-      <c r="E57" s="16"/>
+      <c r="E57" s="14"/>
       <c r="F57" t="s">
         <v>23</v>
       </c>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17">
+      <c r="G57" s="15"/>
+      <c r="H57" s="15">
         <v>1250</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I57" s="15">
         <f>I55-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>123223.3</v>
       </c>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="15">
+      <c r="C58" s="13">
         <v>42643</v>
       </c>
       <c r="D58" t="s">
         <v>38</v>
       </c>
-      <c r="E58" s="16"/>
+      <c r="E58" s="14"/>
       <c r="F58" t="s">
         <v>23</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G58" s="15">
         <v>1250</v>
       </c>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17">
+      <c r="H58" s="15"/>
+      <c r="I58" s="15">
         <f>I56-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>120708.3</v>
       </c>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="15">
+      <c r="C59" s="13">
         <v>42658</v>
       </c>
       <c r="D59" t="s">
         <v>22</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E59" s="14">
         <v>189330</v>
       </c>
       <c r="F59" t="s">
         <v>24</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G59" s="15">
         <v>1500</v>
       </c>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17">
+      <c r="H59" s="15"/>
+      <c r="I59" s="15">
         <f>I58-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>119208.3</v>
       </c>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="15">
+      <c r="C60" s="13">
         <v>42658</v>
       </c>
       <c r="D60" t="s">
         <v>44</v>
       </c>
-      <c r="E60" s="16"/>
+      <c r="E60" s="14"/>
       <c r="F60" t="s">
         <v>23</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G60" s="15">
         <v>20</v>
       </c>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17">
+      <c r="H60" s="15"/>
+      <c r="I60" s="15">
         <f>I59-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>119188.3</v>
       </c>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="15">
+      <c r="C61" s="13">
         <v>42660</v>
       </c>
       <c r="D61" t="s">
         <v>29</v>
       </c>
-      <c r="E61" s="16"/>
+      <c r="E61" s="14"/>
       <c r="F61" t="s">
         <v>23</v>
       </c>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17">
+      <c r="G61" s="15"/>
+      <c r="H61" s="15">
         <v>10000</v>
       </c>
-      <c r="I61" s="17">
+      <c r="I61" s="15">
         <f>I60-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="15"/>
-      <c r="E62" s="16"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17">
+      <c r="C62" s="13"/>
+      <c r="E62" s="14"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15">
         <f>I61-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="15"/>
-      <c r="E63" s="16"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17">
+      <c r="C63" s="13"/>
+      <c r="E63" s="14"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15">
         <f>I62-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C64" s="15"/>
-      <c r="E64" s="16"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17">
+      <c r="C64" s="13"/>
+      <c r="E64" s="14"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15">
         <f>I63-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C65" s="15"/>
-      <c r="E65" s="16"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17">
+      <c r="C65" s="13"/>
+      <c r="E65" s="14"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15">
         <f>I64-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="15"/>
-      <c r="E66" s="16"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17">
+      <c r="C66" s="13"/>
+      <c r="E66" s="14"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15">
         <f>I65-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="15"/>
-      <c r="E67" s="16"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17">
+      <c r="C67" s="13"/>
+      <c r="E67" s="14"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15">
         <f>I66-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="15"/>
-      <c r="E68" s="16"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17">
+      <c r="C68" s="13"/>
+      <c r="E68" s="14"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15">
         <f>I67-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="15"/>
-      <c r="E69" s="16"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17">
+      <c r="C69" s="13"/>
+      <c r="E69" s="14"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15">
         <f>I68-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="15"/>
-      <c r="E70" s="16"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17">
+      <c r="C70" s="13"/>
+      <c r="E70" s="14"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15">
         <f>I69-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C71" s="15"/>
-      <c r="E71" s="16"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17">
+      <c r="C71" s="13"/>
+      <c r="E71" s="14"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15">
         <f>I70-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C72" s="15"/>
-      <c r="E72" s="16"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17">
+      <c r="C72" s="13"/>
+      <c r="E72" s="14"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15">
         <f>I71-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C73" s="15"/>
-      <c r="E73" s="16"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17">
+      <c r="C73" s="13"/>
+      <c r="E73" s="14"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15">
         <f>I72-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C74" s="15"/>
-      <c r="E74" s="16"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17">
+      <c r="C74" s="13"/>
+      <c r="E74" s="14"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15">
         <f>I73-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C75" s="15"/>
-      <c r="E75" s="16"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17">
+      <c r="C75" s="13"/>
+      <c r="E75" s="14"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15">
         <f>I74-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C76" s="15"/>
-      <c r="E76" s="16"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17">
+      <c r="C76" s="13"/>
+      <c r="E76" s="14"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15">
         <f>I75-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C77" s="15"/>
-      <c r="E77" s="16"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17">
+      <c r="C77" s="13"/>
+      <c r="E77" s="14"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15">
         <f>I76-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C78" s="15"/>
-      <c r="E78" s="16"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17">
+      <c r="C78" s="13"/>
+      <c r="E78" s="14"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15">
         <f>I77-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C79" s="15"/>
-      <c r="E79" s="16"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17">
+      <c r="C79" s="13"/>
+      <c r="E79" s="14"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15">
         <f>I78-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C80" s="15"/>
-      <c r="E80" s="16"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17">
+      <c r="C80" s="13"/>
+      <c r="E80" s="14"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15">
         <f>I79-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C81" s="15"/>
-      <c r="E81" s="16"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17">
+      <c r="C81" s="13"/>
+      <c r="E81" s="14"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15">
         <f>I80-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C82" s="15"/>
-      <c r="E82" s="16"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17">
+      <c r="C82" s="13"/>
+      <c r="E82" s="14"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15">
         <f>I81-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C83" s="15"/>
-      <c r="E83" s="16"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17">
+      <c r="C83" s="13"/>
+      <c r="E83" s="14"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15">
         <f>I82-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C84" s="15"/>
-      <c r="E84" s="16"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17">
+      <c r="C84" s="13"/>
+      <c r="E84" s="14"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15">
         <f>I83-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C85" s="15"/>
-      <c r="E85" s="16"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17">
+      <c r="C85" s="13"/>
+      <c r="E85" s="14"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15">
         <f>I84-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C86" s="15"/>
-      <c r="E86" s="16"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17">
+      <c r="C86" s="13"/>
+      <c r="E86" s="14"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15">
         <f>I85-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C87" s="15"/>
-      <c r="E87" s="16"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17">
+      <c r="C87" s="13"/>
+      <c r="E87" s="14"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15">
         <f>I86-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="88" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C88" s="15"/>
-      <c r="E88" s="16"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17">
+      <c r="C88" s="13"/>
+      <c r="E88" s="14"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15">
         <f>I87-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C89" s="15"/>
-      <c r="E89" s="16"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17">
+      <c r="C89" s="13"/>
+      <c r="E89" s="14"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15">
         <f>I88-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C90" s="15"/>
-      <c r="E90" s="16"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17">
+      <c r="C90" s="13"/>
+      <c r="E90" s="14"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15">
         <f>I89-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C91" s="15"/>
-      <c r="E91" s="16"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17">
+      <c r="C91" s="13"/>
+      <c r="E91" s="14"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15">
         <f>I90-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C92" s="15"/>
-      <c r="E92" s="16"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17">
+      <c r="C92" s="13"/>
+      <c r="E92" s="14"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15">
         <f>I91-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C93" s="15"/>
-      <c r="E93" s="16"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17">
+      <c r="C93" s="13"/>
+      <c r="E93" s="14"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15">
         <f>I92-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C94" s="15"/>
-      <c r="E94" s="16"/>
+      <c r="C94" s="13"/>
+      <c r="E94" s="14"/>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C95" s="15"/>
-      <c r="E95" s="16"/>
+      <c r="C95" s="13"/>
+      <c r="E95" s="14"/>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C96" s="15"/>
-      <c r="E96" s="16"/>
+      <c r="C96" s="13"/>
+      <c r="E96" s="14"/>
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C97" s="15"/>
-      <c r="E97" s="16"/>
+      <c r="C97" s="13"/>
+      <c r="E97" s="14"/>
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C98" s="15"/>
+      <c r="C98" s="13"/>
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C99" s="15"/>
+      <c r="C99" s="13"/>
     </row>
     <row r="100" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C100" s="15"/>
+      <c r="C100" s="13"/>
     </row>
     <row r="101" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C101" s="15"/>
+      <c r="C101" s="13"/>
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C102" s="15"/>
+      <c r="C102" s="13"/>
     </row>
     <row r="103" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C103" s="15"/>
+      <c r="C103" s="13"/>
     </row>
     <row r="104" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C104" s="15"/>
+      <c r="C104" s="13"/>
     </row>
     <row r="105" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C105" s="15"/>
+      <c r="C105" s="13"/>
     </row>
     <row r="106" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C106" s="15"/>
+      <c r="C106" s="13"/>
     </row>
     <row r="107" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C107" s="15"/>
+      <c r="C107" s="13"/>
     </row>
     <row r="108" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C108" s="15"/>
+      <c r="C108" s="13"/>
     </row>
     <row r="109" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C109" s="15"/>
+      <c r="C109" s="13"/>
     </row>
     <row r="110" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C110" s="15"/>
+      <c r="C110" s="13"/>
     </row>
     <row r="111" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C111" s="15"/>
+      <c r="C111" s="13"/>
     </row>
     <row r="112" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C112" s="15"/>
+      <c r="C112" s="13"/>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C113" s="15"/>
+      <c r="C113" s="13"/>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C114" s="15"/>
+      <c r="C114" s="13"/>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C115" s="15"/>
+      <c r="C115" s="13"/>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C116" s="15"/>
+      <c r="C116" s="13"/>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C117" s="15"/>
+      <c r="C117" s="13"/>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C118" s="15"/>
+      <c r="C118" s="13"/>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C119" s="15"/>
+      <c r="C119" s="13"/>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C120" s="15"/>
+      <c r="C120" s="13"/>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C121" s="15"/>
+      <c r="C121" s="13"/>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C122" s="15"/>
+      <c r="C122" s="13"/>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C123" s="15"/>
+      <c r="C123" s="13"/>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C124" s="15"/>
+      <c r="C124" s="13"/>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C125" s="15"/>
+      <c r="C125" s="13"/>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C126" s="15"/>
+      <c r="C126" s="13"/>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C127" s="15"/>
+      <c r="C127" s="13"/>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C128" s="15"/>
+      <c r="C128" s="13"/>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="15"/>
+      <c r="C129" s="13"/>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="15"/>
+      <c r="C130" s="13"/>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="15"/>
+      <c r="C131" s="13"/>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="15"/>
+      <c r="C132" s="13"/>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="15"/>
+      <c r="C133" s="13"/>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="15"/>
+      <c r="C134" s="13"/>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="15"/>
+      <c r="C135" s="13"/>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="15"/>
+      <c r="C136" s="13"/>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="15"/>
+      <c r="C137" s="13"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">

--- a/ZSS/resources/Purva Vihar/FY2014-15/PurvaVihar-Misc.xlsx
+++ b/ZSS/resources/Purva Vihar/FY2014-15/PurvaVihar-Misc.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="MSEB" sheetId="2" r:id="rId1"/>
-    <sheet name="Ba.nk" sheetId="1" r:id="rId2"/>
+    <sheet name="Bank" sheetId="1" r:id="rId2"/>
     <sheet name="Expenses" sheetId="3" r:id="rId3"/>
     <sheet name="Cash" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -299,6 +299,12 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -311,12 +317,6 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -325,6 +325,9 @@
     <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <alignment horizontal="general" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -338,14 +341,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -570,6 +570,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -731,11 +732,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="274766568"/>
-        <c:axId val="218058736"/>
+        <c:axId val="241782736"/>
+        <c:axId val="241783128"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="274766568"/>
+        <c:axId val="241782736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -778,14 +779,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218058736"/>
+        <c:crossAx val="241783128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="218058736"/>
+        <c:axId val="241783128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -836,7 +837,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="274766568"/>
+        <c:crossAx val="241782736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1480,16 +1481,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Bank" displayName="Bank" ref="C4:I93" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Bank" displayName="Bank" ref="C4:I93" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="C4:I93"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Date" dataDxfId="4"/>
+    <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Description"/>
-    <tableColumn id="3" name="Cheque Number" dataDxfId="3"/>
+    <tableColumn id="3" name="Cheque Number" dataDxfId="0"/>
     <tableColumn id="4" name="Mode"/>
-    <tableColumn id="5" name="Withdrawal" dataDxfId="2"/>
-    <tableColumn id="6" name="Deposit" dataDxfId="1"/>
-    <tableColumn id="7" name="Balance" dataDxfId="0"/>
+    <tableColumn id="5" name="Withdrawal" dataDxfId="3"/>
+    <tableColumn id="6" name="Deposit" dataDxfId="2"/>
+    <tableColumn id="7" name="Balance" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1799,12 +1800,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="9"/>
     </row>
     <row r="2" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1817,10 +1818,10 @@
       <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="18"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C3" s="10" t="s">
@@ -1841,11 +1842,11 @@
       <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="9"/>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
@@ -2088,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2113,1674 +2114,1674 @@
     </row>
     <row r="3" spans="3:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="13"/>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17">
         <v>117579.3</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="13">
+      <c r="C6" s="15">
         <v>41953</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="16">
         <v>171098</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="17">
         <v>1500</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15">
+      <c r="H6" s="17"/>
+      <c r="I6" s="17">
         <f>I5-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>116079.3</v>
       </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="13">
+      <c r="C7" s="15">
         <v>41963</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="16">
         <v>171100</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="17">
         <v>110000</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15">
+      <c r="H7" s="17"/>
+      <c r="I7" s="17">
         <f>I6-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>6079.3000000000029</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="13">
+      <c r="C8" s="15">
         <v>41981</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="16">
         <v>175691</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="17">
         <v>3730</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15">
+      <c r="H8" s="17"/>
+      <c r="I8" s="17">
         <f>I7-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>2349.3000000000029</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="13">
+      <c r="C9" s="15">
         <v>41983</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="16">
         <v>175692</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="17">
         <v>1500</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15">
+      <c r="H9" s="17"/>
+      <c r="I9" s="17">
         <f>I8-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>849.30000000000291</v>
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="13">
+      <c r="C10" s="15">
         <v>42011</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="16"/>
       <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="17">
         <v>25</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15">
+      <c r="H10" s="17"/>
+      <c r="I10" s="17">
         <f>I9-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>824.30000000000291</v>
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="13">
+      <c r="C11" s="15">
         <v>42017</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="16"/>
       <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15">
+      <c r="G11" s="17"/>
+      <c r="H11" s="17">
         <v>9000</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="17">
         <f>I10-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>9824.3000000000029</v>
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="13">
+      <c r="C12" s="15">
         <v>42017</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="16">
         <v>175694</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="17">
         <v>1500</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15">
+      <c r="H12" s="17"/>
+      <c r="I12" s="17">
         <f>I11-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>8324.3000000000029</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="13">
+      <c r="C13" s="15">
         <v>42031</v>
       </c>
       <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="14"/>
+      <c r="E13" s="16"/>
       <c r="F13" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15">
+      <c r="G13" s="17"/>
+      <c r="H13" s="17">
         <v>5500</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="17">
         <f>I12-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>13824.300000000003</v>
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="13">
+      <c r="C14" s="15">
         <v>42040</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="16">
         <v>175695</v>
       </c>
       <c r="F14" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="17">
         <v>4150</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15">
+      <c r="H14" s="17"/>
+      <c r="I14" s="17">
         <f>I13-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>9674.3000000000029</v>
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="13">
+      <c r="C15" s="15">
         <v>42045</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="16">
         <v>175696</v>
       </c>
       <c r="F15" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="17">
         <v>1500</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15">
+      <c r="H15" s="17"/>
+      <c r="I15" s="17">
         <f>I14-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>8174.3000000000029</v>
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="13">
+      <c r="C16" s="15">
         <v>42061</v>
       </c>
       <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="14"/>
+      <c r="E16" s="16"/>
       <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15">
+      <c r="G16" s="17"/>
+      <c r="H16" s="17">
         <v>6000</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="17">
         <f>I15-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>14174.300000000003</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="13">
+      <c r="C17" s="15">
         <v>42062</v>
       </c>
       <c r="D17" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="14"/>
+      <c r="E17" s="16"/>
       <c r="F17" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15">
+      <c r="G17" s="17"/>
+      <c r="H17" s="17">
         <v>1000</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="17">
         <f>I16-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>15174.300000000003</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="13">
+      <c r="C18" s="15">
         <v>42063</v>
       </c>
       <c r="D18" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="14"/>
+      <c r="E18" s="16"/>
       <c r="F18" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="17">
         <v>20</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15">
+      <c r="H18" s="17"/>
+      <c r="I18" s="17">
         <f>I17-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>15154.300000000003</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="13">
+      <c r="C19" s="15">
         <v>42067</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="16">
         <v>175697</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="17">
         <v>7850</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15">
+      <c r="H19" s="17"/>
+      <c r="I19" s="17">
         <f>I18-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>7304.3000000000029</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="13">
+      <c r="C20" s="15">
         <v>42073</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="16">
         <v>175698</v>
       </c>
       <c r="F20" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="17">
         <v>1500</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15">
+      <c r="H20" s="17"/>
+      <c r="I20" s="17">
         <f>I19-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>5804.3000000000029</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="13">
+      <c r="C21" s="15">
         <v>42094</v>
       </c>
       <c r="D21" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="14"/>
+      <c r="E21" s="16"/>
       <c r="F21" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15">
+      <c r="G21" s="17"/>
+      <c r="H21" s="17">
         <v>597</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="17">
         <f>I20-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>6401.3000000000029</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="13">
+      <c r="C22" s="15">
         <v>42094</v>
       </c>
       <c r="D22" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="16"/>
       <c r="F22" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="17">
         <v>597</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15">
+      <c r="H22" s="17"/>
+      <c r="I22" s="17">
         <f>I21-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>5804.3000000000029</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="13">
+      <c r="C23" s="15">
         <v>42101</v>
       </c>
       <c r="D23" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="14"/>
+      <c r="E23" s="16"/>
       <c r="F23" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15">
+      <c r="G23" s="17"/>
+      <c r="H23" s="17">
         <v>113751</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="17">
         <f>I22-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>119555.3</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="13">
+      <c r="C24" s="15">
         <v>42103</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="14"/>
+      <c r="E24" s="16"/>
       <c r="F24" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15">
+      <c r="G24" s="17"/>
+      <c r="H24" s="17">
         <v>2200</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="17">
         <f>I23-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>121755.3</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="13">
+      <c r="C25" s="15">
         <v>42103</v>
       </c>
       <c r="D25" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="16"/>
       <c r="F25" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15">
+      <c r="G25" s="17"/>
+      <c r="H25" s="17">
         <v>2200</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="17">
         <f>I24-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>123955.3</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="13">
+      <c r="C26" s="15">
         <v>42107</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="16">
         <v>175699</v>
       </c>
       <c r="F26" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="17">
         <v>1500</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="16">
+      <c r="H26" s="17"/>
+      <c r="I26" s="18">
         <f>I25-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>122455.3</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="13">
+      <c r="C27" s="15">
         <v>42135</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="16">
         <v>175700</v>
       </c>
       <c r="F27" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="17">
         <v>1500</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15">
+      <c r="H27" s="17"/>
+      <c r="I27" s="17">
         <f>I26-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>120955.3</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="13">
+      <c r="C28" s="15">
         <v>42158</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="16">
         <v>178931</v>
       </c>
       <c r="F28" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="17">
         <v>1500</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15">
+      <c r="H28" s="17"/>
+      <c r="I28" s="17">
         <f>I27-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>119455.3</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="13">
+      <c r="C29" s="15">
         <v>42208</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="16">
         <v>178932</v>
       </c>
       <c r="F29" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="17">
         <v>1500</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15">
+      <c r="H29" s="17"/>
+      <c r="I29" s="17">
         <f>I28-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>117955.3</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="13">
+      <c r="C30" s="15">
         <v>42223</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="16">
         <v>178933</v>
       </c>
       <c r="F30" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="17">
         <v>1500</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15">
+      <c r="H30" s="17"/>
+      <c r="I30" s="17">
         <f>I29-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>116455.3</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="13">
+      <c r="C31" s="15">
         <v>42262</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="16">
         <v>178934</v>
       </c>
       <c r="F31" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="17">
         <v>1500</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15">
+      <c r="H31" s="17"/>
+      <c r="I31" s="17">
         <f>I30-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>114955.3</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="13">
+      <c r="C32" s="15">
         <v>42262</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="14"/>
+      <c r="E32" s="16"/>
       <c r="F32" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15">
+      <c r="G32" s="17"/>
+      <c r="H32" s="17">
         <v>6000</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="17">
         <f>I31-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>120955.3</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="13">
+      <c r="C33" s="15">
         <v>42277</v>
       </c>
       <c r="D33" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="14"/>
+      <c r="E33" s="16"/>
       <c r="F33" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15">
+      <c r="G33" s="17"/>
+      <c r="H33" s="17">
         <v>2032</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I33" s="17">
         <f>I32-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>122987.3</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="13">
+      <c r="C34" s="15">
         <v>42277</v>
       </c>
       <c r="D34" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="14"/>
+      <c r="E34" s="16"/>
       <c r="F34" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="17">
         <v>2032</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15">
+      <c r="H34" s="17"/>
+      <c r="I34" s="17">
         <f>I33-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>120955.3</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="13">
+      <c r="C35" s="15">
         <v>42289</v>
       </c>
       <c r="D35" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="16">
         <v>178935</v>
       </c>
       <c r="F35" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="17">
         <v>1500</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15">
+      <c r="H35" s="17"/>
+      <c r="I35" s="17">
         <f>I34-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>119455.3</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="13">
+      <c r="C36" s="15">
         <v>42318</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="16">
         <v>178936</v>
       </c>
       <c r="F36" t="s">
         <v>24</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="17">
         <v>1500</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15">
+      <c r="H36" s="17"/>
+      <c r="I36" s="17">
         <f>I35-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>117955.3</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="13">
+      <c r="C37" s="15">
         <v>42318</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="16">
         <v>178937</v>
       </c>
       <c r="F37" t="s">
         <v>24</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="17">
         <v>1500</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15">
+      <c r="H37" s="17"/>
+      <c r="I37" s="17">
         <f>I36-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>116455.3</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="13">
+      <c r="C38" s="15">
         <v>42352</v>
       </c>
       <c r="D38" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="16">
         <v>178938</v>
       </c>
       <c r="F38" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="17">
         <v>1500</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15">
+      <c r="H38" s="17"/>
+      <c r="I38" s="17">
         <f>I37-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>114955.3</v>
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="13">
+      <c r="C39" s="15">
         <v>42381</v>
       </c>
       <c r="D39" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="16">
         <v>178939</v>
       </c>
       <c r="F39" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="17">
         <v>1500</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15">
+      <c r="H39" s="17"/>
+      <c r="I39" s="17">
         <f>I38-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>113455.3</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="13">
+      <c r="C40" s="15">
         <v>42389</v>
       </c>
       <c r="D40" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="14"/>
+      <c r="E40" s="16"/>
       <c r="F40" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15">
+      <c r="G40" s="17"/>
+      <c r="H40" s="17">
         <v>9000</v>
       </c>
-      <c r="I40" s="15">
+      <c r="I40" s="17">
         <f>I39-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>122455.3</v>
       </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="13">
+      <c r="C41" s="15">
         <v>42412</v>
       </c>
       <c r="D41" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="16">
         <v>178940</v>
       </c>
       <c r="F41" t="s">
         <v>24</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="17">
         <v>1500</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15">
+      <c r="H41" s="17"/>
+      <c r="I41" s="17">
         <f>I40-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>120955.3</v>
       </c>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="13">
+      <c r="C42" s="15">
         <v>42412</v>
       </c>
       <c r="D42" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="14"/>
+      <c r="E42" s="16"/>
       <c r="F42" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="17">
         <v>20</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15">
+      <c r="H42" s="17"/>
+      <c r="I42" s="17">
         <f>I41-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>120935.3</v>
       </c>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="13">
+      <c r="C43" s="15">
         <v>42440</v>
       </c>
       <c r="D43" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="16">
         <v>189321</v>
       </c>
       <c r="F43" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="17">
         <v>1500</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15">
+      <c r="H43" s="17"/>
+      <c r="I43" s="17">
         <f>I42-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>119435.3</v>
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="13">
+      <c r="C44" s="15">
         <v>42460</v>
       </c>
       <c r="D44" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="14"/>
+      <c r="E44" s="16"/>
       <c r="F44" t="s">
         <v>23</v>
       </c>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15">
+      <c r="G44" s="17"/>
+      <c r="H44" s="17">
         <v>2081</v>
       </c>
-      <c r="I44" s="15">
+      <c r="I44" s="17">
         <f>I43-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>121516.3</v>
       </c>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="13">
+      <c r="C45" s="15">
         <v>42460</v>
       </c>
       <c r="D45" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="14"/>
+      <c r="E45" s="16"/>
       <c r="F45" t="s">
         <v>23</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="17">
         <v>2081</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15">
+      <c r="H45" s="17"/>
+      <c r="I45" s="17">
         <f>I44-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>119435.3</v>
       </c>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="13">
+      <c r="C46" s="15">
         <v>42472</v>
       </c>
       <c r="D46" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="16">
         <v>189322</v>
       </c>
       <c r="F46" t="s">
         <v>24</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="17">
         <v>1500</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15">
+      <c r="H46" s="17"/>
+      <c r="I46" s="17">
         <f>I45-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>117935.3</v>
       </c>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="13">
+      <c r="C47" s="15">
         <v>42473</v>
       </c>
       <c r="D47" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="14"/>
+      <c r="E47" s="16"/>
       <c r="F47" t="s">
         <v>24</v>
       </c>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15">
+      <c r="G47" s="17"/>
+      <c r="H47" s="17">
         <v>3300</v>
       </c>
-      <c r="I47" s="16">
+      <c r="I47" s="18">
         <f>I46-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>121235.3</v>
       </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="13">
+      <c r="C48" s="15">
         <v>42500</v>
       </c>
       <c r="D48" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="16">
         <v>189323</v>
       </c>
       <c r="F48" t="s">
         <v>24</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G48" s="17">
         <v>1500</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15">
+      <c r="H48" s="17"/>
+      <c r="I48" s="17">
         <f>I47-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>119735.3</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="13">
+      <c r="C49" s="15">
         <v>42534</v>
       </c>
       <c r="D49" t="s">
         <v>29</v>
       </c>
-      <c r="E49" s="14"/>
+      <c r="E49" s="16"/>
       <c r="F49" t="s">
         <v>23</v>
       </c>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15">
+      <c r="G49" s="17"/>
+      <c r="H49" s="17">
         <v>5000</v>
       </c>
-      <c r="I49" s="15">
+      <c r="I49" s="17">
         <f>I48-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>124735.3</v>
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="13">
+      <c r="C50" s="15">
         <v>42534</v>
       </c>
       <c r="D50" t="s">
         <v>22</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="16">
         <v>189324</v>
       </c>
       <c r="F50" t="s">
         <v>24</v>
       </c>
-      <c r="G50" s="15">
+      <c r="G50" s="17">
         <v>1500</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15">
+      <c r="H50" s="17"/>
+      <c r="I50" s="17">
         <f>I49-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>123235.3</v>
       </c>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="13">
+      <c r="C51" s="15">
         <v>42536</v>
       </c>
       <c r="D51" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="14"/>
+      <c r="E51" s="16"/>
       <c r="F51" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15">
+      <c r="G51" s="17"/>
+      <c r="H51" s="17">
         <v>2030</v>
       </c>
-      <c r="I51" s="15">
+      <c r="I51" s="17">
         <f>I50-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>125265.3</v>
       </c>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="13">
+      <c r="C52" s="15">
         <v>42551</v>
       </c>
       <c r="D52" t="s">
         <v>43</v>
       </c>
-      <c r="E52" s="14"/>
+      <c r="E52" s="16"/>
       <c r="F52" t="s">
         <v>23</v>
       </c>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15">
+      <c r="G52" s="17"/>
+      <c r="H52" s="17">
         <v>1208</v>
       </c>
-      <c r="I52" s="15">
+      <c r="I52" s="17">
         <f>I51-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>126473.3</v>
       </c>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="13">
+      <c r="C53" s="15">
         <v>42562</v>
       </c>
       <c r="D53" t="s">
         <v>22</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="16">
         <v>189327</v>
       </c>
       <c r="F53" t="s">
         <v>24</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G53" s="17">
         <v>1500</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15">
+      <c r="H53" s="17"/>
+      <c r="I53" s="17">
         <f>I52-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>124973.3</v>
       </c>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="13">
+      <c r="C54" s="15">
         <v>42592</v>
       </c>
       <c r="D54" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54" s="16">
         <v>189328</v>
       </c>
       <c r="F54" t="s">
         <v>24</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G54" s="17">
         <v>1500</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15">
+      <c r="H54" s="17"/>
+      <c r="I54" s="17">
         <f>I53-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>123473.3</v>
       </c>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="13">
+      <c r="C55" s="15">
         <v>42625</v>
       </c>
       <c r="D55" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="16">
         <v>189329</v>
       </c>
       <c r="F55" t="s">
         <v>24</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G55" s="17">
         <v>1500</v>
       </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15">
+      <c r="H55" s="17"/>
+      <c r="I55" s="17">
         <f>I54-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>121973.3</v>
       </c>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="13">
+      <c r="C56" s="15">
         <v>42630</v>
       </c>
       <c r="D56" t="s">
         <v>45</v>
       </c>
-      <c r="E56" s="14"/>
+      <c r="E56" s="16"/>
       <c r="F56" t="s">
         <v>23</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G56" s="17">
         <v>15</v>
       </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15">
+      <c r="H56" s="17"/>
+      <c r="I56" s="17">
         <f>I55-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>121958.3</v>
       </c>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="13">
+      <c r="C57" s="15">
         <v>42643</v>
       </c>
       <c r="D57" t="s">
         <v>46</v>
       </c>
-      <c r="E57" s="14"/>
+      <c r="E57" s="16"/>
       <c r="F57" t="s">
         <v>23</v>
       </c>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15">
+      <c r="G57" s="17"/>
+      <c r="H57" s="17">
         <v>1250</v>
       </c>
-      <c r="I57" s="15">
+      <c r="I57" s="17">
         <f>I55-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>123223.3</v>
       </c>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="13">
+      <c r="C58" s="15">
         <v>42643</v>
       </c>
       <c r="D58" t="s">
         <v>38</v>
       </c>
-      <c r="E58" s="14"/>
+      <c r="E58" s="16"/>
       <c r="F58" t="s">
         <v>23</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G58" s="17">
         <v>1250</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15">
+      <c r="H58" s="17"/>
+      <c r="I58" s="17">
         <f>I56-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>120708.3</v>
       </c>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="13">
+      <c r="C59" s="15">
         <v>42658</v>
       </c>
       <c r="D59" t="s">
         <v>22</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59" s="16">
         <v>189330</v>
       </c>
       <c r="F59" t="s">
         <v>24</v>
       </c>
-      <c r="G59" s="15">
+      <c r="G59" s="17">
         <v>1500</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15">
+      <c r="H59" s="17"/>
+      <c r="I59" s="17">
         <f>I58-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>119208.3</v>
       </c>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="13">
+      <c r="C60" s="15">
         <v>42658</v>
       </c>
       <c r="D60" t="s">
         <v>44</v>
       </c>
-      <c r="E60" s="14"/>
+      <c r="E60" s="16"/>
       <c r="F60" t="s">
         <v>23</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G60" s="17">
         <v>20</v>
       </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15">
+      <c r="H60" s="17"/>
+      <c r="I60" s="17">
         <f>I59-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>119188.3</v>
       </c>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="13">
+      <c r="C61" s="15">
         <v>42660</v>
       </c>
       <c r="D61" t="s">
         <v>29</v>
       </c>
-      <c r="E61" s="14"/>
+      <c r="E61" s="16"/>
       <c r="F61" t="s">
         <v>23</v>
       </c>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15">
+      <c r="G61" s="17"/>
+      <c r="H61" s="17">
         <v>10000</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I61" s="17">
         <f>I60-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="13"/>
-      <c r="E62" s="14"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15">
+      <c r="C62" s="15"/>
+      <c r="E62" s="16"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17">
         <f>I61-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="13"/>
-      <c r="E63" s="14"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15">
+      <c r="C63" s="15"/>
+      <c r="E63" s="16"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17">
         <f>I62-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C64" s="13"/>
-      <c r="E64" s="14"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15">
+      <c r="C64" s="15"/>
+      <c r="E64" s="16"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17">
         <f>I63-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C65" s="13"/>
-      <c r="E65" s="14"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15">
+      <c r="C65" s="15"/>
+      <c r="E65" s="16"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17">
         <f>I64-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="13"/>
-      <c r="E66" s="14"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15">
+      <c r="C66" s="15"/>
+      <c r="E66" s="16"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17">
         <f>I65-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="13"/>
-      <c r="E67" s="14"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15">
+      <c r="C67" s="15"/>
+      <c r="E67" s="16"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17">
         <f>I66-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="13"/>
-      <c r="E68" s="14"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15">
+      <c r="C68" s="15"/>
+      <c r="E68" s="16"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17">
         <f>I67-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="13"/>
-      <c r="E69" s="14"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15">
+      <c r="C69" s="15"/>
+      <c r="E69" s="16"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17">
         <f>I68-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="13"/>
-      <c r="E70" s="14"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15">
+      <c r="C70" s="15"/>
+      <c r="E70" s="16"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17">
         <f>I69-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C71" s="13"/>
-      <c r="E71" s="14"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15">
+      <c r="C71" s="15"/>
+      <c r="E71" s="16"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17">
         <f>I70-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C72" s="13"/>
-      <c r="E72" s="14"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15">
+      <c r="C72" s="15"/>
+      <c r="E72" s="16"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17">
         <f>I71-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C73" s="13"/>
-      <c r="E73" s="14"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15">
+      <c r="C73" s="15"/>
+      <c r="E73" s="16"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17">
         <f>I72-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C74" s="13"/>
-      <c r="E74" s="14"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15">
+      <c r="C74" s="15"/>
+      <c r="E74" s="16"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17">
         <f>I73-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C75" s="13"/>
-      <c r="E75" s="14"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15">
+      <c r="C75" s="15"/>
+      <c r="E75" s="16"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17">
         <f>I74-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C76" s="13"/>
-      <c r="E76" s="14"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15">
+      <c r="C76" s="15"/>
+      <c r="E76" s="16"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17">
         <f>I75-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C77" s="13"/>
-      <c r="E77" s="14"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15">
+      <c r="C77" s="15"/>
+      <c r="E77" s="16"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17">
         <f>I76-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C78" s="13"/>
-      <c r="E78" s="14"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15">
+      <c r="C78" s="15"/>
+      <c r="E78" s="16"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17">
         <f>I77-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C79" s="13"/>
-      <c r="E79" s="14"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15">
+      <c r="C79" s="15"/>
+      <c r="E79" s="16"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17">
         <f>I78-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C80" s="13"/>
-      <c r="E80" s="14"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15">
+      <c r="C80" s="15"/>
+      <c r="E80" s="16"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17">
         <f>I79-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C81" s="13"/>
-      <c r="E81" s="14"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15">
+      <c r="C81" s="15"/>
+      <c r="E81" s="16"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17">
         <f>I80-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C82" s="13"/>
-      <c r="E82" s="14"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15">
+      <c r="C82" s="15"/>
+      <c r="E82" s="16"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17">
         <f>I81-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C83" s="13"/>
-      <c r="E83" s="14"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15">
+      <c r="C83" s="15"/>
+      <c r="E83" s="16"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17">
         <f>I82-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C84" s="13"/>
-      <c r="E84" s="14"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15">
+      <c r="C84" s="15"/>
+      <c r="E84" s="16"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17">
         <f>I83-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C85" s="13"/>
-      <c r="E85" s="14"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15">
+      <c r="C85" s="15"/>
+      <c r="E85" s="16"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17">
         <f>I84-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C86" s="13"/>
-      <c r="E86" s="14"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15">
+      <c r="C86" s="15"/>
+      <c r="E86" s="16"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17">
         <f>I85-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C87" s="13"/>
-      <c r="E87" s="14"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15">
+      <c r="C87" s="15"/>
+      <c r="E87" s="16"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17">
         <f>I86-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="88" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C88" s="13"/>
-      <c r="E88" s="14"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15">
+      <c r="C88" s="15"/>
+      <c r="E88" s="16"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17">
         <f>I87-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C89" s="13"/>
-      <c r="E89" s="14"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15">
+      <c r="C89" s="15"/>
+      <c r="E89" s="16"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17">
         <f>I88-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C90" s="13"/>
-      <c r="E90" s="14"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15">
+      <c r="C90" s="15"/>
+      <c r="E90" s="16"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17">
         <f>I89-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C91" s="13"/>
-      <c r="E91" s="14"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15">
+      <c r="C91" s="15"/>
+      <c r="E91" s="16"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17">
         <f>I90-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C92" s="13"/>
-      <c r="E92" s="14"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15">
+      <c r="C92" s="15"/>
+      <c r="E92" s="16"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17">
         <f>I91-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C93" s="13"/>
-      <c r="E93" s="14"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15">
+      <c r="C93" s="15"/>
+      <c r="E93" s="16"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17">
         <f>I92-Bank[[#This Row],[Withdrawal]]+Bank[[#This Row],[Deposit]]</f>
         <v>129188.3</v>
       </c>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C94" s="13"/>
-      <c r="E94" s="14"/>
+      <c r="C94" s="15"/>
+      <c r="E94" s="16"/>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C95" s="13"/>
-      <c r="E95" s="14"/>
+      <c r="C95" s="15"/>
+      <c r="E95" s="16"/>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C96" s="13"/>
-      <c r="E96" s="14"/>
+      <c r="C96" s="15"/>
+      <c r="E96" s="16"/>
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C97" s="13"/>
-      <c r="E97" s="14"/>
+      <c r="C97" s="15"/>
+      <c r="E97" s="16"/>
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C98" s="13"/>
+      <c r="C98" s="15"/>
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C99" s="13"/>
+      <c r="C99" s="15"/>
     </row>
     <row r="100" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C100" s="13"/>
+      <c r="C100" s="15"/>
     </row>
     <row r="101" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C101" s="13"/>
+      <c r="C101" s="15"/>
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C102" s="13"/>
+      <c r="C102" s="15"/>
     </row>
     <row r="103" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C103" s="13"/>
+      <c r="C103" s="15"/>
     </row>
     <row r="104" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C104" s="13"/>
+      <c r="C104" s="15"/>
     </row>
     <row r="105" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C105" s="13"/>
+      <c r="C105" s="15"/>
     </row>
     <row r="106" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C106" s="13"/>
+      <c r="C106" s="15"/>
     </row>
     <row r="107" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C107" s="13"/>
+      <c r="C107" s="15"/>
     </row>
     <row r="108" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C108" s="13"/>
+      <c r="C108" s="15"/>
     </row>
     <row r="109" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C109" s="13"/>
+      <c r="C109" s="15"/>
     </row>
     <row r="110" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C110" s="13"/>
+      <c r="C110" s="15"/>
     </row>
     <row r="111" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C111" s="13"/>
+      <c r="C111" s="15"/>
     </row>
     <row r="112" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C112" s="13"/>
+      <c r="C112" s="15"/>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C113" s="13"/>
+      <c r="C113" s="15"/>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C114" s="13"/>
+      <c r="C114" s="15"/>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C115" s="13"/>
+      <c r="C115" s="15"/>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C116" s="13"/>
+      <c r="C116" s="15"/>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C117" s="13"/>
+      <c r="C117" s="15"/>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C118" s="13"/>
+      <c r="C118" s="15"/>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C119" s="13"/>
+      <c r="C119" s="15"/>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C120" s="13"/>
+      <c r="C120" s="15"/>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C121" s="13"/>
+      <c r="C121" s="15"/>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C122" s="13"/>
+      <c r="C122" s="15"/>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C123" s="13"/>
+      <c r="C123" s="15"/>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C124" s="13"/>
+      <c r="C124" s="15"/>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C125" s="13"/>
+      <c r="C125" s="15"/>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C126" s="13"/>
+      <c r="C126" s="15"/>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C127" s="13"/>
+      <c r="C127" s="15"/>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C128" s="13"/>
+      <c r="C128" s="15"/>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="13"/>
+      <c r="C129" s="15"/>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="13"/>
+      <c r="C130" s="15"/>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="13"/>
+      <c r="C131" s="15"/>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="13"/>
+      <c r="C132" s="15"/>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="13"/>
+      <c r="C133" s="15"/>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="13"/>
+      <c r="C134" s="15"/>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="13"/>
+      <c r="C135" s="15"/>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="13"/>
+      <c r="C136" s="15"/>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="13"/>
+      <c r="C137" s="15"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
